--- a/iperf3_analysis_v2.xlsx
+++ b/iperf3_analysis_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -42,13 +42,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -985,7 +990,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -996,7 +1001,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
